--- a/RegressionTests/Unit_Test_1/expected_aptrans_HiddenColumn.xlsx
+++ b/RegressionTests/Unit_Test_1/expected_aptrans_HiddenColumn.xlsx
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="140">
   <si>
     <t>Square Inc PRSA - 604425</t>
   </si>
@@ -607,19 +607,19 @@
     <t>ISSUES FOUND</t>
   </si>
   <si>
-    <t>refno</t>
+    <t>REFNO</t>
   </si>
   <si>
-    <t>forename</t>
+    <t>FORENAME</t>
   </si>
   <si>
-    <t>surname</t>
+    <t>SURNAME</t>
   </si>
   <si>
-    <t>ee</t>
+    <t>EE</t>
   </si>
   <si>
-    <t>er</t>
+    <t>ER</t>
   </si>
   <si>
     <t>839415</t>
@@ -644,12 +644,6 @@
   </si>
   <si>
     <t>931165</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>ER</t>
   </si>
   <si>
     <t>NEG_ROWS</t>
@@ -5310,7 +5304,7 @@
     <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="109"/>
       <c r="B12" s="106" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="106" t="s">
         <v>51</v>
@@ -5328,7 +5322,7 @@
     <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="109"/>
       <c r="B13" s="106" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="106" t="s">
         <v>54</v>
@@ -5365,24 +5359,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="110" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="110"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="106" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -10807,7 +10801,7 @@
     <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="109"/>
       <c r="B12" s="106" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="106" t="s">
         <v>51</v>
@@ -10825,7 +10819,7 @@
     <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="109"/>
       <c r="B13" s="106" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="106" t="s">
         <v>54</v>
@@ -10862,24 +10856,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="110" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="110"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="106" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -16155,7 +16149,7 @@
     <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="109"/>
       <c r="B12" s="106" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="106" t="s">
         <v>51</v>
@@ -16173,7 +16167,7 @@
     <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="109"/>
       <c r="B13" s="106" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="106" t="s">
         <v>54</v>
@@ -16228,24 +16222,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="110" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="110"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="106" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -21521,7 +21515,7 @@
     <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="109"/>
       <c r="B12" s="106" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="106" t="s">
         <v>51</v>
@@ -21539,7 +21533,7 @@
     <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="109"/>
       <c r="B13" s="106" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="106" t="s">
         <v>54</v>
@@ -21557,7 +21551,7 @@
     <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="109"/>
       <c r="B14" s="106" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="106" t="s">
         <v>88</v>
@@ -21799,24 +21793,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="110" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="110"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="106" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -27090,7 +27084,7 @@
     <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="109"/>
       <c r="B12" s="106" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="106" t="s">
         <v>51</v>
@@ -27108,7 +27102,7 @@
     <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="109"/>
       <c r="B13" s="106" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="106" t="s">
         <v>54</v>
@@ -27126,7 +27120,7 @@
     <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="109"/>
       <c r="B14" s="106" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="106" t="s">
         <v>88</v>
@@ -27163,24 +27157,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="110" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="110"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="106" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -32455,7 +32449,7 @@
     <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="109"/>
       <c r="B12" s="106" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="106" t="s">
         <v>51</v>
@@ -32473,7 +32467,7 @@
     <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="109"/>
       <c r="B13" s="106" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="106" t="s">
         <v>54</v>
@@ -32491,7 +32485,7 @@
     <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="109"/>
       <c r="B14" s="106" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="106" t="s">
         <v>88</v>
@@ -32528,24 +32522,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="110" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="110"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="106" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -37842,7 +37836,7 @@
     <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="109"/>
       <c r="B12" s="106" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="106" t="s">
         <v>51</v>
@@ -37860,7 +37854,7 @@
     <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="109"/>
       <c r="B13" s="106" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="106" t="s">
         <v>54</v>
@@ -37878,7 +37872,7 @@
     <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="109"/>
       <c r="B14" s="106" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="106" t="s">
         <v>88</v>
@@ -37915,24 +37909,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="110" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="110"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="106" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -37957,24 +37951,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="110" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="110"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="106" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -43461,7 +43455,7 @@
     <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="109"/>
       <c r="B12" s="106" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="106" t="s">
         <v>51</v>
@@ -43479,7 +43473,7 @@
     <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="109"/>
       <c r="B13" s="106" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="106" t="s">
         <v>54</v>
@@ -43497,7 +43491,7 @@
     <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="109"/>
       <c r="B14" s="106" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="106" t="s">
         <v>88</v>
@@ -43588,24 +43582,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="110" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="110"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="106" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -48837,10 +48831,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="106" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B1" s="106" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
@@ -48853,22 +48847,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="106" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" s="106" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" s="106" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" s="106" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -52856,24 +52850,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="110" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="110"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="106" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_1/expected_aptrans_HiddenColumn.xlsx
+++ b/RegressionTests/Unit_Test_1/expected_aptrans_HiddenColumn.xlsx
@@ -1031,14 +1031,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1051,6 +1043,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="20">
@@ -1078,7 +1078,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
@@ -1302,11 +1302,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5262,7 +5265,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -5285,7 +5288,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -5308,7 +5311,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -5328,7 +5331,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -5351,7 +5354,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -5374,7 +5377,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -5397,7 +5400,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -5420,7 +5423,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -5443,7 +5446,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -5466,7 +5469,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -5489,7 +5492,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -10628,7 +10631,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -10651,7 +10654,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -10674,7 +10677,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -10694,7 +10697,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -10717,7 +10720,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -10740,7 +10743,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -10763,7 +10766,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -10786,7 +10789,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -10809,7 +10812,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -10832,7 +10835,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -10855,7 +10858,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -10878,7 +10881,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>173</v>
       </c>
       <c r="B14" s="106" t="s">
@@ -16014,7 +16017,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -16037,7 +16040,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -16060,7 +16063,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -16080,7 +16083,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -16103,7 +16106,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -16126,7 +16129,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -16149,7 +16152,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -16172,7 +16175,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -16195,7 +16198,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -16218,7 +16221,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -16241,7 +16244,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -16264,7 +16267,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>174</v>
       </c>
       <c r="B14" s="106" t="s">
@@ -21401,7 +21404,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -21424,7 +21427,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -21447,7 +21450,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -21467,7 +21470,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -21490,7 +21493,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -21513,7 +21516,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -21536,7 +21539,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -21559,7 +21562,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -21582,7 +21585,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -21605,7 +21608,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -21628,7 +21631,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -21651,7 +21654,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>174</v>
       </c>
       <c r="B14" s="106" t="s">
@@ -26789,7 +26792,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -26812,7 +26815,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -26835,7 +26838,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -26855,7 +26858,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -26878,7 +26881,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -26901,7 +26904,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -26924,7 +26927,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -26947,7 +26950,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -26970,7 +26973,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -26993,7 +26996,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -27016,7 +27019,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -27039,7 +27042,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>174</v>
       </c>
       <c r="B14" s="106" t="s">
@@ -32199,7 +32202,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -32222,7 +32225,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -32245,7 +32248,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -32265,7 +32268,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -32288,7 +32291,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -32311,7 +32314,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -32334,7 +32337,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -32357,7 +32360,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -32449,7 +32452,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -32472,7 +32475,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -32495,7 +32498,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -32515,7 +32518,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -32538,7 +32541,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -32561,7 +32564,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -32584,7 +32587,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -32607,7 +32610,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -32630,7 +32633,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -32653,7 +32656,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -32676,7 +32679,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -32699,7 +32702,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>174</v>
       </c>
       <c r="B14" s="106" t="s">
@@ -38049,7 +38052,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -38072,7 +38075,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -38095,7 +38098,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -38115,7 +38118,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -38138,7 +38141,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -38161,7 +38164,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -38184,7 +38187,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -38207,7 +38210,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -38230,7 +38233,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -38253,7 +38256,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -38276,7 +38279,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
@@ -38299,7 +38302,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="110" t="s">
         <v>174</v>
       </c>
       <c r="B14" s="106" t="s">
@@ -38322,7 +38325,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="110" t="s">
         <v>173</v>
       </c>
       <c r="B15" s="106" t="s">
@@ -38342,7 +38345,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="110" t="s">
         <v>173</v>
       </c>
       <c r="B16" s="106" t="s">
@@ -38362,7 +38365,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="110" t="s">
         <v>173</v>
       </c>
       <c r="B17" s="106" t="s">
@@ -43654,31 +43657,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="110" t="s">
+      <c r="E12" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="110" t="s">
+      <c r="F12" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="110" t="s">
+      <c r="G12" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="110" t="s">
+      <c r="H12" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="I12" s="110" t="s">
+      <c r="I12" s="111" t="s">
         <v>150</v>
       </c>
     </row>
@@ -47597,7 +47600,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -47620,7 +47623,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -47643,7 +47646,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -47663,7 +47666,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -47686,7 +47689,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -47709,7 +47712,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -47732,7 +47735,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -47755,7 +47758,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -53161,7 +53164,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="110" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="106" t="s">
@@ -53184,7 +53187,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="110" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="106" t="s">
@@ -53207,7 +53210,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="110" t="s">
         <v>128</v>
       </c>
       <c r="B5" s="106" t="s">
@@ -53227,7 +53230,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="110" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="106" t="s">
@@ -53250,7 +53253,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="110" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="106" t="s">
@@ -53273,7 +53276,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="110" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="106" t="s">
@@ -53296,7 +53299,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="109" t="s">
+      <c r="A9" s="110" t="s">
         <v>136</v>
       </c>
       <c r="B9" s="106" t="s">
@@ -53319,7 +53322,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="110" t="s">
         <v>137</v>
       </c>
       <c r="B10" s="106" t="s">
@@ -53342,7 +53345,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="110" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="106" t="s">
@@ -53365,7 +53368,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="106" t="s">
@@ -53388,7 +53391,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="110" t="s">
         <v>171</v>
       </c>
       <c r="B13" s="106" t="s">
